--- a/tests/test_data/south_africa_hpv_data.xlsx
+++ b/tests/test_data/south_africa_hpv_data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/hpvsim/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/hpvsim/tests/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE4D81-C2EC-A044-A09B-A51621B3AB91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F4E5A6-3A1E-0D40-B23C-A1806B517C2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="27240" windowHeight="15560" xr2:uid="{2BDBFF24-AB52-564F-A66B-D2A1566107A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>0-19</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>n_alive</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC872691-F7C5-B447-AD6F-7138B02EAF71}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,7 +705,7 @@
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="AG1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -904,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>2012</v>
       </c>
